--- a/CNA01D.xlsx
+++ b/CNA01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="141">
   <si>
     <t/>
   </si>
@@ -94,6 +94,12 @@
     <t>IDM CD WN.BMB2S L/XL</t>
   </si>
   <si>
+    <t>20140419</t>
+  </si>
+  <si>
+    <t>IDM CD WNT SOFT 2-XL</t>
+  </si>
+  <si>
     <t>20122827</t>
   </si>
   <si>
@@ -233,6 +239,12 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>20140363</t>
+  </si>
+  <si>
+    <t>LRST ANKLE MSTY 1+1</t>
   </si>
   <si>
     <t>20092086</t>
@@ -814,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1038,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1075,10 +1087,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1118,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1138,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1178,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1218,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1258,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1266,10 +1278,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1278,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1286,10 +1298,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1298,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1358,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1378,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1398,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1418,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1438,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1458,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1466,22 +1478,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,13 +1507,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1538,7 +1550,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -1558,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -1578,7 +1590,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -1598,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -1618,7 +1630,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -1638,10 +1650,10 @@
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,10 +1670,10 @@
         <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,7 +1690,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
@@ -1698,10 +1710,10 @@
         <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -1746,19 +1758,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -1766,19 +1778,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1795,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1815,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -1835,10 +1847,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -1855,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -1875,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,13 +1907,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,10 +1927,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
@@ -1935,13 +1947,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,13 +1967,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -1995,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2015,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2035,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2055,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -2075,12 +2087,52 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>5</v>
       </c>
     </row>
